--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3461.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3461.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.549069179593976</v>
+        <v>1.092565536499023</v>
       </c>
       <c r="B1">
-        <v>1.702737443802003</v>
+        <v>1.824850797653198</v>
       </c>
       <c r="C1">
-        <v>1.990280619600516</v>
+        <v>5.376095294952393</v>
       </c>
       <c r="D1">
-        <v>3.316061401486634</v>
+        <v>0.7536296248435974</v>
       </c>
       <c r="E1">
-        <v>7.792489859738569</v>
+        <v>0.6149309277534485</v>
       </c>
     </row>
   </sheetData>
